--- a/mySystem/mySystem/xls/cleancut/5 SOP-MFG-302-R05A 清洁分切工序清场记录.xlsx
+++ b/mySystem/mySystem/xls/cleancut/5 SOP-MFG-302-R05A 清洁分切工序清场记录.xlsx
@@ -286,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +363,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -691,47 +699,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -739,13 +753,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,22 +783,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,16 +1098,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="52.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="4" customWidth="1"/>
@@ -1111,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="19"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1120,46 +1128,46 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -1167,134 +1175,134 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
